--- a/Data/Hay Day Production Values.xlsx
+++ b/Data/Hay Day Production Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\HayDay\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD3A2C0A-6D73-4638-8018-0D8921B4A956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB68216-479F-4FD4-8443-E26D8D9FE8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37245" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="1260" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Production Machines and Recipes" sheetId="1" r:id="rId1"/>
@@ -2102,9 +2102,9 @@
   </sheetPr>
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I292" sqref="I292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27500,7 +27500,9 @@
         <f t="shared" si="14"/>
         <v>396</v>
       </c>
-      <c r="G282" s="12"/>
+      <c r="G282" s="12">
+        <v>5</v>
+      </c>
       <c r="H282" s="13">
         <v>360</v>
       </c>
@@ -27512,7 +27514,7 @@
       <c r="K282" s="13"/>
       <c r="L282" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="M282" s="13"/>
       <c r="N282" s="14">
@@ -27582,7 +27584,9 @@
         <f t="shared" si="14"/>
         <v>396</v>
       </c>
-      <c r="G283" s="12"/>
+      <c r="G283" s="12">
+        <v>6</v>
+      </c>
       <c r="H283" s="13">
         <v>360</v>
       </c>
@@ -27594,7 +27598,7 @@
       <c r="K283" s="13"/>
       <c r="L283" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M283" s="13"/>
       <c r="N283" s="14">
@@ -28019,7 +28023,9 @@
         <f t="shared" si="18"/>
         <v>468</v>
       </c>
-      <c r="G288" s="12"/>
+      <c r="G288" s="12">
+        <v>5</v>
+      </c>
       <c r="H288" s="13">
         <v>360</v>
       </c>
@@ -28031,7 +28037,7 @@
       <c r="K288" s="13"/>
       <c r="L288" s="13">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="M288" s="13"/>
       <c r="N288" s="14">
@@ -28104,7 +28110,9 @@
         <f t="shared" si="18"/>
         <v>456</v>
       </c>
-      <c r="G289" s="15"/>
+      <c r="G289" s="15">
+        <v>6</v>
+      </c>
       <c r="H289" s="13">
         <v>360</v>
       </c>
@@ -28116,7 +28124,7 @@
       <c r="K289" s="13"/>
       <c r="L289" s="13">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M289" s="13"/>
       <c r="N289" s="14">
@@ -39173,7 +39181,7 @@
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>406</v>
       </c>
@@ -39181,7 +39189,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -39189,7 +39197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -39197,7 +39205,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -39205,7 +39213,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -39216,7 +39224,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -39227,7 +39235,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -39235,7 +39243,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>409</v>
       </c>
@@ -39243,7 +39251,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -39251,7 +39259,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -39259,7 +39267,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>164</v>
       </c>
@@ -39267,7 +39275,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>80</v>
       </c>
@@ -39275,7 +39283,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>370</v>
       </c>
@@ -39283,7 +39291,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>105</v>
       </c>
@@ -39291,7 +39299,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -39299,7 +39307,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -39307,7 +39315,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>124</v>
       </c>
@@ -39315,7 +39323,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>81</v>
       </c>
@@ -39323,7 +39331,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -39331,7 +39339,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>171</v>
       </c>
@@ -39339,7 +39347,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>96</v>
       </c>
@@ -39347,7 +39355,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -39355,7 +39363,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>100</v>
       </c>
@@ -39363,7 +39371,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -39371,7 +39379,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>39</v>
       </c>
@@ -39381,7 +39389,7 @@
       <c r="C25" s="16"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>91</v>
       </c>
@@ -39391,7 +39399,7 @@
       <c r="C26" s="16"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>110</v>
       </c>
@@ -39401,7 +39409,7 @@
       <c r="C27" s="16"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>107</v>
       </c>
@@ -39411,7 +39419,7 @@
       <c r="C28" s="16"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>84</v>
       </c>
@@ -39421,7 +39429,7 @@
       <c r="C29" s="16"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>200</v>
       </c>
@@ -39431,7 +39439,7 @@
       <c r="C30" s="16"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>75</v>
       </c>
@@ -39441,7 +39449,7 @@
       <c r="C31" s="16"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>126</v>
       </c>
@@ -39451,7 +39459,7 @@
       <c r="C32" s="16"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>293</v>
       </c>
@@ -39461,7 +39469,7 @@
       <c r="C33" s="16"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>77</v>
       </c>
@@ -39471,7 +39479,7 @@
       <c r="C34" s="16"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>310</v>
       </c>
@@ -39481,7 +39489,7 @@
       <c r="C35" s="16"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>79</v>
       </c>
@@ -39491,7 +39499,7 @@
       <c r="C36" s="16"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>83</v>
       </c>
@@ -39501,7 +39509,7 @@
       <c r="C37" s="16"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>46</v>
       </c>
@@ -39511,7 +39519,7 @@
       <c r="C38" s="16"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>384</v>
       </c>
@@ -39521,7 +39529,7 @@
       <c r="C39" s="16"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>125</v>
       </c>
@@ -39531,7 +39539,7 @@
       <c r="C40" s="16"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>182</v>
       </c>
@@ -39541,7 +39549,7 @@
       <c r="C41" s="16"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>49</v>
       </c>
@@ -39551,7 +39559,7 @@
       <c r="C42" s="16"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>116</v>
       </c>
@@ -39561,7 +39569,7 @@
       <c r="C43" s="16"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>225</v>
       </c>
@@ -39571,7 +39579,7 @@
       <c r="C44" s="16"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>90</v>
       </c>
@@ -39581,7 +39589,7 @@
       <c r="C45" s="16"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>86</v>
       </c>
@@ -39591,7 +39599,7 @@
       <c r="C46" s="16"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>246</v>
       </c>
@@ -39601,7 +39609,7 @@
       <c r="C47" s="16"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
         <v>305</v>
       </c>
@@ -39611,7 +39619,7 @@
       <c r="C48" s="16"/>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -39622,7 +39630,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>60</v>
       </c>
@@ -39633,7 +39641,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>316</v>
       </c>
@@ -39644,7 +39652,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>58</v>
       </c>
@@ -39655,7 +39663,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>114</v>
       </c>
@@ -39666,7 +39674,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>213</v>
       </c>
@@ -39677,7 +39685,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>50</v>
       </c>
@@ -39688,7 +39696,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>223</v>
       </c>
@@ -39699,7 +39707,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -39708,7 +39716,7 @@
       </c>
       <c r="C57" s="16"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>44</v>
       </c>
@@ -39717,7 +39725,7 @@
       </c>
       <c r="C58" s="16"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>192</v>
       </c>
@@ -39726,7 +39734,7 @@
       </c>
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>136</v>
       </c>
@@ -39735,7 +39743,7 @@
       </c>
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>21</v>
       </c>
@@ -39746,7 +39754,7 @@
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>24</v>
       </c>
@@ -39757,7 +39765,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>27</v>
       </c>
@@ -39768,7 +39776,7 @@
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>29</v>
       </c>
@@ -39779,7 +39787,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>31</v>
       </c>
@@ -39787,7 +39795,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>33</v>
       </c>
@@ -39795,7 +39803,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>36</v>
       </c>
@@ -39803,7 +39811,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>38</v>
       </c>
@@ -39811,7 +39819,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>42</v>
       </c>
@@ -39819,7 +39827,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>45</v>
       </c>
@@ -39827,7 +39835,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>48</v>
       </c>
@@ -39835,7 +39843,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>52</v>
       </c>
@@ -39843,7 +39851,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>56</v>
       </c>
@@ -39851,7 +39859,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>59</v>
       </c>
@@ -39859,7 +39867,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>61</v>
       </c>
@@ -39867,7 +39875,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>64</v>
       </c>
@@ -39875,7 +39883,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>65</v>
       </c>
@@ -39883,7 +39891,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>67</v>
       </c>
@@ -39891,7 +39899,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>68</v>
       </c>
@@ -39899,7 +39907,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>69</v>
       </c>
@@ -39907,7 +39915,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>70</v>
       </c>
@@ -39915,7 +39923,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>72</v>
       </c>
@@ -39923,7 +39931,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>73</v>
       </c>
@@ -39931,7 +39939,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>74</v>
       </c>
@@ -39939,7 +39947,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>76</v>
       </c>
@@ -39947,7 +39955,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>78</v>
       </c>
@@ -39955,7 +39963,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>82</v>
       </c>
@@ -39963,7 +39971,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>85</v>
       </c>
@@ -39971,7 +39979,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
@@ -39979,7 +39987,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
@@ -39987,7 +39995,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>93</v>
       </c>
@@ -39995,7 +40003,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>97</v>
       </c>
@@ -40003,7 +40011,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
@@ -40011,7 +40019,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>98</v>
       </c>
@@ -40019,7 +40027,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>99</v>
       </c>
@@ -40027,7 +40035,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>101</v>
       </c>
@@ -40035,7 +40043,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>102</v>
       </c>
@@ -40043,7 +40051,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>104</v>
       </c>
@@ -40051,7 +40059,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>106</v>
       </c>
@@ -40059,7 +40067,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
@@ -40067,7 +40075,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>111</v>
       </c>
@@ -40075,7 +40083,7 @@
         <v>8964</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>113</v>
       </c>
@@ -40083,7 +40091,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>115</v>
       </c>
@@ -40091,7 +40099,7 @@
         <v>6048</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>118</v>
       </c>
@@ -40099,7 +40107,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>120</v>
       </c>
@@ -40107,7 +40115,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>121</v>
       </c>
@@ -40115,7 +40123,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>122</v>
       </c>
@@ -40123,7 +40131,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>123</v>
       </c>
@@ -40131,7 +40139,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>128</v>
       </c>
@@ -40139,7 +40147,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>129</v>
       </c>
@@ -40147,7 +40155,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>130</v>
       </c>
@@ -40155,7 +40163,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>131</v>
       </c>
@@ -40163,7 +40171,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>132</v>
       </c>
@@ -40171,7 +40179,7 @@
         <v>6840</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>135</v>
       </c>
@@ -40179,7 +40187,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>137</v>
       </c>
@@ -40187,7 +40195,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>138</v>
       </c>
@@ -40195,7 +40203,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>140</v>
       </c>
@@ -40203,7 +40211,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>141</v>
       </c>
@@ -40211,7 +40219,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>142</v>
       </c>
@@ -40219,7 +40227,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>143</v>
       </c>
@@ -40227,7 +40235,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>144</v>
       </c>
@@ -40235,7 +40243,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>145</v>
       </c>
@@ -40243,7 +40251,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>146</v>
       </c>
@@ -40251,7 +40259,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>71</v>
       </c>
@@ -40259,7 +40267,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>41</v>
       </c>
@@ -40267,7 +40275,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>35</v>
       </c>
@@ -40275,7 +40283,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>103</v>
       </c>
@@ -40283,7 +40291,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>149</v>
       </c>
@@ -40291,7 +40299,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>150</v>
       </c>
@@ -40299,7 +40307,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>152</v>
       </c>
@@ -40307,7 +40315,7 @@
         <v>4068</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>153</v>
       </c>
@@ -40315,7 +40323,7 @@
         <v>6588</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>155</v>
       </c>
@@ -40323,7 +40331,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>156</v>
       </c>
@@ -40331,7 +40339,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>157</v>
       </c>
@@ -40339,7 +40347,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>158</v>
       </c>
@@ -40347,7 +40355,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>159</v>
       </c>
@@ -40355,7 +40363,7 @@
         <v>3888</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>160</v>
       </c>
@@ -40363,7 +40371,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>162</v>
       </c>
@@ -40371,7 +40379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>163</v>
       </c>
@@ -40379,7 +40387,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>165</v>
       </c>
@@ -40387,7 +40395,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>166</v>
       </c>
@@ -40395,7 +40403,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>167</v>
       </c>
@@ -40403,7 +40411,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>168</v>
       </c>
@@ -40411,7 +40419,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>170</v>
       </c>
@@ -40419,7 +40427,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>172</v>
       </c>
@@ -40427,7 +40435,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>174</v>
       </c>
@@ -40435,7 +40443,7 @@
         <v>5004</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>177</v>
       </c>
@@ -40443,7 +40451,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>178</v>
       </c>
@@ -40451,7 +40459,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>180</v>
       </c>
@@ -40459,7 +40467,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>181</v>
       </c>
@@ -40467,7 +40475,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>184</v>
       </c>
@@ -40475,7 +40483,7 @@
         <v>6264</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>185</v>
       </c>
@@ -40483,7 +40491,7 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>186</v>
       </c>
@@ -40491,7 +40499,7 @@
         <v>4932</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>188</v>
       </c>
@@ -40499,7 +40507,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>190</v>
       </c>
@@ -40507,7 +40515,7 @@
         <v>6192</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>193</v>
       </c>
@@ -40515,7 +40523,7 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>194</v>
       </c>
@@ -40523,7 +40531,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>62</v>
       </c>
@@ -40531,7 +40539,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>119</v>
       </c>
@@ -40539,7 +40547,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>197</v>
       </c>
@@ -40547,7 +40555,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>199</v>
       </c>
@@ -40555,7 +40563,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>201</v>
       </c>
@@ -40563,7 +40571,7 @@
         <v>5292</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>202</v>
       </c>
@@ -40571,7 +40579,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>204</v>
       </c>
@@ -40579,7 +40587,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>205</v>
       </c>
@@ -40587,7 +40595,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>206</v>
       </c>
@@ -40595,7 +40603,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>207</v>
       </c>
@@ -40603,7 +40611,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>208</v>
       </c>
@@ -40611,7 +40619,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>209</v>
       </c>
@@ -40619,7 +40627,7 @@
         <v>6192</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>210</v>
       </c>
@@ -40627,7 +40635,7 @@
         <v>3996</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>211</v>
       </c>
@@ -40635,7 +40643,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>212</v>
       </c>
@@ -40643,7 +40651,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>214</v>
       </c>
@@ -40651,7 +40659,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>215</v>
       </c>
@@ -40659,7 +40667,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>151</v>
       </c>
@@ -40667,7 +40675,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>133</v>
       </c>
@@ -40675,7 +40683,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>134</v>
       </c>
@@ -40683,7 +40691,7 @@
         <v>3888</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>217</v>
       </c>
@@ -40691,7 +40699,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>218</v>
       </c>
@@ -40699,7 +40707,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>219</v>
       </c>
@@ -40707,7 +40715,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>220</v>
       </c>
@@ -40715,7 +40723,7 @@
         <v>4644</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>221</v>
       </c>
@@ -40723,7 +40731,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>222</v>
       </c>
@@ -40731,7 +40739,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>224</v>
       </c>
@@ -40739,7 +40747,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>227</v>
       </c>
@@ -40747,7 +40755,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>230</v>
       </c>
@@ -40755,7 +40763,7 @@
         <v>7272</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>232</v>
       </c>
@@ -40763,7 +40771,7 @@
         <v>8244</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>233</v>
       </c>
@@ -40771,7 +40779,7 @@
         <v>6588</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>235</v>
       </c>
@@ -40779,7 +40787,7 @@
         <v>6984</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>237</v>
       </c>
@@ -40787,7 +40795,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>238</v>
       </c>
@@ -40795,7 +40803,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>179</v>
       </c>
@@ -40803,7 +40811,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>239</v>
       </c>
@@ -40811,7 +40819,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>240</v>
       </c>
@@ -40819,7 +40827,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>241</v>
       </c>
@@ -40827,7 +40835,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>242</v>
       </c>
@@ -40835,7 +40843,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>243</v>
       </c>
@@ -40843,7 +40851,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>244</v>
       </c>
@@ -40851,7 +40859,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>245</v>
       </c>
@@ -40859,7 +40867,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>248</v>
       </c>
@@ -40867,7 +40875,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>175</v>
       </c>
@@ -40875,7 +40883,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>249</v>
       </c>
@@ -40883,7 +40891,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>250</v>
       </c>
@@ -40891,7 +40899,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>251</v>
       </c>
@@ -40899,7 +40907,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>252</v>
       </c>
@@ -40907,7 +40915,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>254</v>
       </c>
@@ -40915,7 +40923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>255</v>
       </c>
@@ -40923,7 +40931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>256</v>
       </c>
@@ -40931,7 +40939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>257</v>
       </c>
@@ -40939,7 +40947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>258</v>
       </c>
@@ -40947,7 +40955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>260</v>
       </c>
@@ -40955,7 +40963,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>108</v>
       </c>
@@ -40963,7 +40971,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>261</v>
       </c>
@@ -40971,7 +40979,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>262</v>
       </c>
@@ -40979,7 +40987,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>173</v>
       </c>
@@ -40987,7 +40995,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>264</v>
       </c>
@@ -40995,7 +41003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>265</v>
       </c>
@@ -41003,7 +41011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>266</v>
       </c>
@@ -41011,7 +41019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>267</v>
       </c>
@@ -41019,7 +41027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>269</v>
       </c>
@@ -41027,7 +41035,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>270</v>
       </c>
@@ -41035,7 +41043,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>272</v>
       </c>
@@ -41043,7 +41051,7 @@
         <v>6372</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>273</v>
       </c>
@@ -41051,7 +41059,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>274</v>
       </c>
@@ -41059,7 +41067,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>275</v>
       </c>
@@ -41067,7 +41075,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>276</v>
       </c>
@@ -41075,7 +41083,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>271</v>
       </c>
@@ -41083,7 +41091,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>278</v>
       </c>
@@ -41091,7 +41099,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>280</v>
       </c>
@@ -41099,7 +41107,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>281</v>
       </c>
@@ -41107,7 +41115,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>282</v>
       </c>
@@ -41115,7 +41123,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>283</v>
       </c>
@@ -41123,7 +41131,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>284</v>
       </c>
@@ -41131,7 +41139,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>285</v>
       </c>
@@ -41139,7 +41147,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>286</v>
       </c>
@@ -41147,7 +41155,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>287</v>
       </c>
@@ -41155,7 +41163,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>288</v>
       </c>
@@ -41163,7 +41171,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>289</v>
       </c>
@@ -41171,7 +41179,7 @@
         <v>4464</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>290</v>
       </c>
@@ -41179,7 +41187,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>291</v>
       </c>
@@ -41187,7 +41195,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>292</v>
       </c>
@@ -41195,7 +41203,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>294</v>
       </c>
@@ -41203,7 +41211,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>296</v>
       </c>
@@ -41211,7 +41219,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>297</v>
       </c>
@@ -41219,7 +41227,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>298</v>
       </c>
@@ -41227,7 +41235,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>299</v>
       </c>
@@ -41235,7 +41243,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>300</v>
       </c>
@@ -41243,7 +41251,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>301</v>
       </c>
@@ -41251,7 +41259,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>303</v>
       </c>
@@ -41259,7 +41267,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>306</v>
       </c>
@@ -41267,7 +41275,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>307</v>
       </c>
@@ -41275,7 +41283,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>309</v>
       </c>
@@ -41283,7 +41291,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>311</v>
       </c>
@@ -41291,7 +41299,7 @@
         <v>4716</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>312</v>
       </c>
@@ -41299,7 +41307,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>313</v>
       </c>
@@ -41307,7 +41315,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>315</v>
       </c>
@@ -41315,7 +41323,7 @@
         <v>7452</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>317</v>
       </c>
@@ -41323,7 +41331,7 @@
         <v>7236</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>319</v>
       </c>
@@ -41331,7 +41339,7 @@
         <v>7632</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>320</v>
       </c>
@@ -41339,7 +41347,7 @@
         <v>7596</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>321</v>
       </c>
@@ -41347,7 +41355,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>322</v>
       </c>
@@ -41355,7 +41363,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>323</v>
       </c>
@@ -41363,7 +41371,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>324</v>
       </c>
@@ -41371,7 +41379,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>325</v>
       </c>
@@ -41379,7 +41387,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>326</v>
       </c>
@@ -41387,7 +41395,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>327</v>
       </c>
@@ -41395,7 +41403,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>329</v>
       </c>
@@ -41403,7 +41411,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>330</v>
       </c>
@@ -41411,7 +41419,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>331</v>
       </c>
@@ -41419,7 +41427,7 @@
         <v>5832</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>332</v>
       </c>
@@ -41427,7 +41435,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>333</v>
       </c>
@@ -41435,7 +41443,7 @@
         <v>6012</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>334</v>
       </c>
@@ -41443,7 +41451,7 @@
         <v>4644</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>335</v>
       </c>
@@ -41451,7 +41459,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>336</v>
       </c>
@@ -41459,7 +41467,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>338</v>
       </c>
@@ -41467,7 +41475,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>57</v>
       </c>
@@ -41475,7 +41483,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>318</v>
       </c>
@@ -41483,7 +41491,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>112</v>
       </c>
@@ -41491,7 +41499,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>339</v>
       </c>
@@ -41499,7 +41507,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>198</v>
       </c>
@@ -41507,7 +41515,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>87</v>
       </c>
@@ -41515,7 +41523,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>340</v>
       </c>
@@ -41523,7 +41531,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>342</v>
       </c>
@@ -41531,7 +41539,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>343</v>
       </c>
@@ -41539,7 +41547,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>344</v>
       </c>
@@ -41547,7 +41555,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>345</v>
       </c>
@@ -41555,7 +41563,7 @@
         <v>6768</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>346</v>
       </c>
@@ -41563,7 +41571,7 @@
         <v>10980</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>228</v>
       </c>
@@ -41571,7 +41579,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>229</v>
       </c>
@@ -41579,7 +41587,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>231</v>
       </c>
@@ -41587,7 +41595,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>191</v>
       </c>
@@ -41595,7 +41603,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>234</v>
       </c>
@@ -41603,7 +41611,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>349</v>
       </c>
@@ -41611,7 +41619,7 @@
         <v>5472</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>350</v>
       </c>
@@ -41619,7 +41627,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>351</v>
       </c>
@@ -41627,7 +41635,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>352</v>
       </c>
@@ -41635,7 +41643,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>353</v>
       </c>
@@ -41643,7 +41651,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>354</v>
       </c>
@@ -41651,7 +41659,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>355</v>
       </c>
@@ -41659,7 +41667,7 @@
         <v>5112</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>356</v>
       </c>
@@ -41667,7 +41675,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>358</v>
       </c>
@@ -41675,7 +41683,7 @@
         <v>6120</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>359</v>
       </c>
@@ -41683,7 +41691,7 @@
         <v>4788</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>360</v>
       </c>
@@ -41691,7 +41699,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>361</v>
       </c>
@@ -41699,7 +41707,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>362</v>
       </c>
@@ -41707,7 +41715,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>363</v>
       </c>
@@ -41715,7 +41723,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>364</v>
       </c>
@@ -41723,7 +41731,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>365</v>
       </c>
@@ -41731,7 +41739,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>366</v>
       </c>
@@ -41739,7 +41747,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>367</v>
       </c>
@@ -41747,7 +41755,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>368</v>
       </c>
@@ -41755,7 +41763,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>28</v>
       </c>
@@ -41763,7 +41771,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>40</v>
       </c>
@@ -41771,7 +41779,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>47</v>
       </c>
@@ -41779,7 +41787,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>372</v>
       </c>
@@ -41787,7 +41795,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>373</v>
       </c>
@@ -41795,7 +41803,7 @@
         <v>6372</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>374</v>
       </c>
@@ -41803,7 +41811,7 @@
         <v>5508</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>375</v>
       </c>
@@ -41811,7 +41819,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>376</v>
       </c>
@@ -41819,7 +41827,7 @@
         <v>4644</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>378</v>
       </c>
@@ -41827,7 +41835,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>379</v>
       </c>
@@ -41835,7 +41843,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>380</v>
       </c>
@@ -41843,7 +41851,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>381</v>
       </c>
@@ -41851,7 +41859,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>383</v>
       </c>
@@ -41859,7 +41867,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>385</v>
       </c>
@@ -41867,7 +41875,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>386</v>
       </c>
@@ -41875,7 +41883,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>387</v>
       </c>
@@ -41883,7 +41891,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>388</v>
       </c>
@@ -41891,7 +41899,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>389</v>
       </c>
@@ -41899,7 +41907,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>390</v>
       </c>
@@ -41907,7 +41915,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>391</v>
       </c>
@@ -41915,7 +41923,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>393</v>
       </c>
@@ -41923,7 +41931,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>394</v>
       </c>
@@ -41931,7 +41939,7 @@
         <v>5436</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>395</v>
       </c>
@@ -41939,7 +41947,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>396</v>
       </c>
@@ -44855,8 +44863,8 @@
   </sheetPr>
   <dimension ref="A1:AE356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L293" sqref="L293"/>
     </sheetView>
   </sheetViews>
